--- a/public/template_data_pengguna.xlsx
+++ b/public/template_data_pengguna.xlsx
@@ -315,29 +315,43 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -345,13 +359,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -359,29 +373,15 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
